--- a/documents/swm数据字典=2017-10-29.xlsx
+++ b/documents/swm数据字典=2017-10-29.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2280" windowWidth="22944" windowHeight="9900" tabRatio="790" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2736" windowWidth="22944" windowHeight="9900" tabRatio="790" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="用户表user" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="115">
   <si>
     <t>字段名</t>
   </si>
@@ -134,23 +134,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-超级管理员；2-用户；3-维修</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>用户、维修以学号或者工号注册；超级管理员出厂设置</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -183,18 +166,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-男；2-女</t>
-  </si>
-  <si>
     <t>默认100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-空闲、2-使用中、3-故障、4-待清洁</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -274,10 +246,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-充值，2-支付，3-返现</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -306,10 +274,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1-加分，2-支付，3-返分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>account</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -477,6 +441,184 @@
   </si>
   <si>
     <t>start_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-超级管理员；U-用户；R-维修</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M-男；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-女</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F-空闲、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-工作中、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-故障、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-待清洁</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>archar(1)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R-充值，P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-支付，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-返现</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-加分，P-支付，B-返分</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -912,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -960,7 +1102,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
@@ -972,12 +1114,12 @@
         <v>13</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -992,7 +1134,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -1007,7 +1149,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
@@ -1016,18 +1158,18 @@
         <v>19</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -1035,8 +1177,8 @@
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>35</v>
+      <c r="E7" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -1051,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1100,24 +1242,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -1125,24 +1267,24 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
-        <v>45</v>
+      <c r="E5" s="10" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -1150,64 +1292,64 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
         <v>48</v>
       </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1364,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1253,7 +1395,7 @@
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
@@ -1270,10 +1412,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -1284,10 +1426,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -1298,10 +1440,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
+        <v>76</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -1309,8 +1451,8 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>47</v>
+      <c r="E5" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1325,7 +1467,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1373,74 +1515,74 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
+        <v>97</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1556,7 +1698,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1587,7 +1729,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1604,74 +1746,74 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
+        <v>93</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1828,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1734,7 +1876,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1745,7 +1887,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -1758,24 +1900,24 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
